--- a/src/main/resources/ceu/biolab/cmm/scoreAnnotations/model/ScoreLipidsRules.drl.xlsx
+++ b/src/main/resources/ceu/biolab/cmm/scoreAnnotations/model/ScoreLipidsRules.drl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -107,6 +107,99 @@
   </si>
   <si>
     <t xml:space="preserve">(int)$compB.getNumberCarbons(),(int)$compA.getNumberCarbons()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleTable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adduct Relation Rule Table for Lipids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compA: EvaluatedLipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compB: EvaluatedLipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compC: EvaluatedLipid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAdduct()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getFeatureRtValue() &gt; $1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCompoundId() != $1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCompoundId() == $1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Math.abs(getFeatureRtValue() - $1) &lt; 0.05d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getFeatureRtValue() == $1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compA.setAdductRelationScore($1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compA.setIonizationScore($1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adduct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Score A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compA.getCompoundId()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$compA.getFeatureRtValue()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B7</t>
   </si>
 </sst>
 </file>
@@ -199,7 +292,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,6 +310,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -403,23 +500,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13:B14"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="22.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="22.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="64.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="66.22"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="11" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="37.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="34.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="14" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -646,10 +746,614 @@
         <v>25</v>
       </c>
     </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J91" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/main/resources/ceu/biolab/cmm/scoreAnnotations/model/ScoreLipidsRules.drl.xlsx
+++ b/src/main/resources/ceu/biolab/cmm/scoreAnnotations/model/ScoreLipidsRules.drl.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="234">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Import</t>
   </si>
   <si>
-    <t xml:space="preserve">ceu.biolab.cmm.scoreAnnotations.model.EvaluatedLipid</t>
+    <t xml:space="preserve">ceu.biolab.cmm.scoreAnnotations.domain.EvaluatedLipid, ceu.biolab.cmm.shared.domain.ExperimentParameters</t>
   </si>
   <si>
     <t xml:space="preserve">RuleTable LipidsRetentionTimeRules</t>
@@ -109,10 +109,7 @@
     <t xml:space="preserve">(int)$compB.getNumberCarbons(),(int)$compA.getNumberCarbons()</t>
   </si>
   <si>
-    <t xml:space="preserve">RuleTable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adduct Relation Rule Table for Lipids</t>
+    <t xml:space="preserve">RuleTable AdductRelationLipids</t>
   </si>
   <si>
     <t xml:space="preserve">$compA: EvaluatedLipid</t>
@@ -200,6 +197,531 @@
   </si>
   <si>
     <t xml:space="preserve">B7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleTable LackAdductRelationLipids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ep: ExperimentParameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAdductRelationScore()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getIonModeStr()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adduct Relation Score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ionization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RuleTable IonizationLipids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getModifierTypeStr() in $1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getCategory()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getMainClass()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getSubClass() in $1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+H-H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+H-2H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M-H-H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0101','GP0102','GP0108','GP0103','GP0109','GP0104')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('HCOO','HCOONH3')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+HCOOH-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('CH3COO','CH3COONH3')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+CH3COOH-H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+Cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0105','GP0106','GP0107')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0201','GP0202','GP0208','GP0203','GP0204')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0205','GP0206','GP0207')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0601','GP0602','GP0603','GP0604')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0401','GP0402','GP0411','GP0403','GP0404')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0301','GP0302','GP0303','GP0304')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP0305','GP0306','GP0307')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('GP1001','GP1002','GP1003','GP1004')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('NH3','HCOONH3','CH3COONH3')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M+NH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">('none','HCOO','CH3COO')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SP03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
   </si>
 </sst>
 </file>
@@ -215,6 +737,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -292,28 +815,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,10 +1031,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N91"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -515,7 +1046,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="64.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="66.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="28.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="24.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="37.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="34.92"/>
@@ -523,122 +1054,124 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>19</v>
       </c>
     </row>
@@ -750,610 +1283,4469 @@
       <c r="J13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="I17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="3" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J19" s="1"/>
       <c r="L19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J20" s="1"/>
       <c r="L20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J21" s="1"/>
       <c r="L21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="J22" s="1"/>
       <c r="L22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J27" s="1"/>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J28" s="1"/>
+      <c r="A28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J29" s="1"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J30" s="1"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J31" s="1"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J32" s="1"/>
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J33" s="1"/>
+      <c r="A33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="J36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="5"/>
       <c r="J37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="J38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="J62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="J63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J91" s="1"/>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2"/>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2"/>
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2"/>
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2"/>
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2"/>
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2"/>
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2"/>
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2"/>
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2"/>
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2"/>
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2"/>
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2"/>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2"/>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2"/>
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2"/>
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
+      <c r="H183" s="2"/>
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="2"/>
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
+      <c r="H187" s="2"/>
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
+      <c r="H190" s="2"/>
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
+      <c r="H191" s="2"/>
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
+      <c r="H192" s="2"/>
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
+      <c r="H193" s="2"/>
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
+      <c r="H195" s="2"/>
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2"/>
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
+      <c r="H196" s="2"/>
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="2"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2"/>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2"/>
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="2"/>
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="2"/>
+      <c r="I206" s="2"/>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2"/>
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="2"/>
+      <c r="I207" s="2"/>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2"/>
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2"/>
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2"/>
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A214" s="2"/>
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A215" s="2"/>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2"/>
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A217" s="2"/>
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2"/>
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="2"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+    </row>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+    </row>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
